--- a/GSTDec18.xlsx
+++ b/GSTDec18.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>sale</t>
   </si>
@@ -52,13 +52,106 @@
   </si>
   <si>
     <t>(a) Outward taxable supplies (other than zero rated, nil rated and exempted)</t>
+  </si>
+  <si>
+    <t>Purchase Tax Our Of State</t>
+  </si>
+  <si>
+    <t>filed on 2 Mar 19</t>
+  </si>
+  <si>
+    <t>Tax Crdeti</t>
+  </si>
+  <si>
+    <t>After saving Feb 19</t>
+  </si>
+  <si>
+    <t>Credit balace</t>
+  </si>
+  <si>
+    <t>₹8,563.00</t>
+  </si>
+  <si>
+    <t>filled on 29 Apr 19</t>
+  </si>
+  <si>
+    <t>Sale Bill No</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>BPS School</t>
+  </si>
+  <si>
+    <t>Dec 1819 GSTR1</t>
+  </si>
+  <si>
+    <t>20/10/18</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Bill No</t>
+  </si>
+  <si>
+    <t>25/10/18</t>
+  </si>
+  <si>
+    <t>26/10/18</t>
+  </si>
+  <si>
+    <t>21/11/18</t>
+  </si>
+  <si>
+    <t>24/11/18</t>
+  </si>
+  <si>
+    <t>25/11/18</t>
+  </si>
+  <si>
+    <t>29/11/18</t>
+  </si>
+  <si>
+    <t>30/11/18</t>
+  </si>
+  <si>
+    <t>20/12/18</t>
+  </si>
+  <si>
+    <t>22/11/18</t>
+  </si>
+  <si>
+    <t>23/12/18</t>
+  </si>
+  <si>
+    <t>25/12/18</t>
+  </si>
+  <si>
+    <t>Jan 1819</t>
+  </si>
+  <si>
+    <t>GSTR1</t>
+  </si>
+  <si>
+    <t>20/1/19</t>
+  </si>
+  <si>
+    <t>20/2/19</t>
+  </si>
+  <si>
+    <t>20/3/19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +162,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -120,6 +219,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,458 +515,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1">
+    <row r="1" spans="3:10">
+      <c r="D1" s="1">
         <v>43787</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="3:10">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3" spans="3:10">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="3:10" s="6" customFormat="1">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="5" spans="3:10">
+      <c r="C5">
         <v>1022.18</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>61.33</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>61.33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" spans="3:10">
+      <c r="C6">
         <v>1060.1400000000001</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>63.6</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>63.6</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>108.69</v>
       </c>
-      <c r="H6">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="J6">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7">
         <v>2916.8</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>262.5</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>262.5</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>456.96</v>
       </c>
-      <c r="H7">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="J7">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8">
         <v>4384</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>613.76</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>613.76</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>98.04</v>
       </c>
-      <c r="H8">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="J8">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9">
         <v>1535</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>138.15</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>138.15</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>55.22</v>
       </c>
-      <c r="H9">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="J9">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10">
         <v>5223.3999999999996</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>470.1</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>470.1</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>53.46</v>
       </c>
-      <c r="H10">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="J10">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11">
         <v>2450</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>220.5</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>220.5</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="12" spans="3:10">
+      <c r="C12">
         <v>5580</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>502.2</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>502.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
-      <c r="A16" s="2">
-        <f>SUM(A5:A15)</f>
+    <row r="16" spans="3:10" s="2" customFormat="1">
+      <c r="C16" s="2">
+        <f>SUM(C5:C15)</f>
         <v>24171.52</v>
       </c>
-      <c r="B16" s="2">
-        <f>SUM(B5:B15)</f>
+      <c r="D16" s="2">
+        <f>SUM(D5:D15)</f>
         <v>2332.14</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(F6:F15)</f>
-        <v>905.85</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H6:H15)</f>
+        <v>905.85</v>
+      </c>
+      <c r="J16" s="2">
+        <f>SUM(J6:J15)</f>
         <v>2669.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="1">
+    <row r="20" spans="3:10">
+      <c r="D20" s="1">
         <v>43817</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="3:10" s="3" customFormat="1">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+    <row r="22" spans="3:10">
+      <c r="C22">
         <v>36750</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>3307.5</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>97.1</v>
       </c>
-      <c r="H22">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="J22">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
         <v>1367.84</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>123.1</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>162.80000000000001</v>
       </c>
-      <c r="H23">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
+      <c r="J23">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
         <v>585.04</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>52.65</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>154.72999999999999</v>
       </c>
-      <c r="H24">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="J24">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
         <v>5223.3999999999996</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>470.1</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>311.11</v>
       </c>
-      <c r="H25">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+      <c r="J25">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26">
         <v>1240.5999999999999</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>111.654</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
+    <row r="27" spans="3:10">
+      <c r="C27">
         <v>2034.42</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>183.08</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+    <row r="28" spans="3:10">
+      <c r="C28">
         <v>3808.2</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>342.73</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+    <row r="29" spans="3:10">
+      <c r="C29">
         <v>5580</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>502.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
+    <row r="30" spans="3:10">
+      <c r="C30">
         <v>2922</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>262.98</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
+    <row r="31" spans="3:10">
+      <c r="C31">
         <v>1319.49</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>118.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
+    <row r="32" spans="3:10">
+      <c r="C32">
         <v>593.22</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>53.38</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="2">
-        <f>SUM(A22:A33)</f>
+    <row r="34" spans="3:10" s="2" customFormat="1">
+      <c r="C34" s="2">
+        <f>SUM(C22:C33)</f>
         <v>61424.209999999992</v>
       </c>
-      <c r="B34" s="2">
-        <f>SUM(B22:B33)</f>
+      <c r="D34" s="2">
+        <f>SUM(D22:D33)</f>
         <v>5528.1240000000007</v>
-      </c>
-      <c r="F34" s="2">
-        <f>SUM(F22:F33)</f>
-        <v>725.74</v>
       </c>
       <c r="H34" s="2">
         <f>SUM(H22:H33)</f>
+        <v>725.74</v>
+      </c>
+      <c r="J34" s="2">
+        <f>SUM(J22:J33)</f>
         <v>2135.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="4">
+    <row r="38" spans="3:10">
+      <c r="D38" s="4">
         <v>43483</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="5" customFormat="1">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="3:10" s="5" customFormat="1">
+      <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
+    <row r="41" spans="3:10">
+      <c r="C41">
         <v>766.21</v>
       </c>
-      <c r="B41">
+      <c r="D41">
         <v>68.95</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>133.5</v>
       </c>
-      <c r="H41">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
+      <c r="J41">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42">
         <v>990.2</v>
       </c>
-      <c r="B42">
+      <c r="D42">
         <v>89.117999999999995</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>133.5</v>
       </c>
-      <c r="H42">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
+      <c r="J42">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43">
         <v>2224.69</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>133.47999999999999</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>59.69</v>
       </c>
-      <c r="H43">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
+      <c r="J43">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44">
         <v>5223.3999999999996</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>470.1</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>59.69</v>
       </c>
-      <c r="H44">
-        <v>533.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="F45">
+      <c r="J44">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="H45">
         <v>178.29</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="F46">
+    <row r="46" spans="3:10">
+      <c r="H46">
         <v>107.79</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="F47">
+    <row r="47" spans="3:10">
+      <c r="H47">
         <v>107.79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1">
-      <c r="A49" s="2">
-        <f ca="1">SUM(A41:A49)</f>
+    <row r="49" spans="3:16" s="2" customFormat="1">
+      <c r="C49" s="2">
+        <f ca="1">SUM(C41:C49)</f>
         <v>9204.5</v>
       </c>
-      <c r="B49" s="2">
-        <f ca="1">SUM(B41:B49)</f>
+      <c r="D49" s="2">
+        <f ca="1">SUM(D41:D49)</f>
         <v>761.64800000000002</v>
-      </c>
-      <c r="F49" s="2">
-        <f>SUM(F41:F48)</f>
-        <v>780.24999999999989</v>
       </c>
       <c r="H49" s="2">
         <f>SUM(H41:H48)</f>
+        <v>780.24999999999989</v>
+      </c>
+      <c r="J49" s="2">
+        <f>SUM(J41:J48)</f>
         <v>2135.6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1"/>
+    <row r="50" spans="3:16" s="2" customFormat="1"/>
+    <row r="51" spans="3:16">
+      <c r="D51" s="1">
+        <v>43515</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>5910</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" s="7" customFormat="1">
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16">
+      <c r="C53">
+        <v>4100</v>
+      </c>
+      <c r="D53">
+        <v>450</v>
+      </c>
+      <c r="H53">
+        <v>141.03</v>
+      </c>
+      <c r="J53">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16">
+      <c r="C54">
+        <v>1053.98</v>
+      </c>
+      <c r="D54">
+        <v>76.78</v>
+      </c>
+      <c r="H54">
+        <v>109.25</v>
+      </c>
+      <c r="J54">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16">
+      <c r="C55">
+        <v>2225.64</v>
+      </c>
+      <c r="D55">
+        <v>133.43</v>
+      </c>
+      <c r="H55">
+        <v>131.41</v>
+      </c>
+      <c r="J55">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16">
+      <c r="C56">
+        <v>5223.3999999999996</v>
+      </c>
+      <c r="D56">
+        <v>470.1</v>
+      </c>
+      <c r="H56">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57">
+        <v>14445.62</v>
+      </c>
+      <c r="D57">
+        <v>1300.19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16">
+      <c r="C60">
+        <f>SUM(C53:C59)</f>
+        <v>27048.639999999999</v>
+      </c>
+      <c r="D60">
+        <f>SUM(D53:D59)</f>
+        <v>2430.5</v>
+      </c>
+      <c r="H60">
+        <f>SUM(H53:H57)</f>
+        <v>492.14</v>
+      </c>
+      <c r="J60">
+        <f>SUM(J53:J57)</f>
+        <v>1601.6999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16">
+      <c r="D64" s="1">
+        <v>43543</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="7" customFormat="1">
+      <c r="A65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>5223.3999999999996</v>
+      </c>
+      <c r="D66">
+        <v>470.1</v>
+      </c>
+      <c r="J66">
+        <v>533.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1">
+      <c r="A74" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="8">
+        <v>43200</v>
+      </c>
+      <c r="B76">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="8">
+        <v>43230</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81">
+        <v>440</v>
+      </c>
+      <c r="C81">
+        <v>6068.76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>1022.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <v>42</v>
+      </c>
+      <c r="C83">
+        <v>1060.1400000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>2916.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87">
+        <v>47</v>
+      </c>
+      <c r="C87">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88">
+        <v>48</v>
+      </c>
+      <c r="C88">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90">
+        <v>151</v>
+      </c>
+      <c r="C90">
+        <v>1367.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91">
+        <v>152</v>
+      </c>
+      <c r="C91">
+        <v>585.04399999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92">
+        <v>153</v>
+      </c>
+      <c r="C92">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>154</v>
+      </c>
+      <c r="C93">
+        <v>1240.5999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>155</v>
+      </c>
+      <c r="C94">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="8">
+        <v>43143</v>
+      </c>
+      <c r="B95">
+        <v>156</v>
+      </c>
+      <c r="C95">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>157</v>
+      </c>
+      <c r="C96">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1">
+      <c r="A100" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="8">
+        <v>43556</v>
+      </c>
+      <c r="B101">
+        <v>162</v>
+      </c>
+      <c r="C101">
+        <v>766.21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="8">
+        <v>43556</v>
+      </c>
+      <c r="B102">
+        <v>163</v>
+      </c>
+      <c r="C102">
+        <v>990.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="8">
+        <v>43709</v>
+      </c>
+      <c r="B103">
+        <v>165</v>
+      </c>
+      <c r="C103">
+        <v>2224.69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104">
+        <v>166</v>
+      </c>
+      <c r="C104">
+        <v>5223.3999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="8">
+        <v>43587</v>
+      </c>
+      <c r="B105">
+        <v>167</v>
+      </c>
+      <c r="C105">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="8">
+        <v>43618</v>
+      </c>
+      <c r="B106">
+        <v>168</v>
+      </c>
+      <c r="C106">
+        <v>1053.98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107">
+        <v>169</v>
+      </c>
+      <c r="C107">
+        <v>2225.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108">
+        <v>170</v>
+      </c>
+      <c r="C108">
+        <v>5223.4399999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109">
+        <v>171</v>
+      </c>
+      <c r="C109">
+        <v>5223.3999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
